--- a/biology/Botanique/Arenaria_(plante)/Arenaria_(plante).xlsx
+++ b/biology/Botanique/Arenaria_(plante)/Arenaria_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arenaria, la Sabline, est un genre de plantes herbacées de la famille des Caryophyllacées, à répartition cosmopolite, comprenant plus d'une centaine d'espèces. Arenaria serpyllifolia est l'espèce type[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arenaria, la Sabline, est un genre de plantes herbacées de la famille des Caryophyllacées, à répartition cosmopolite, comprenant plus d'une centaine d'espèces. Arenaria serpyllifolia est l'espèce type.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom provient du latin arena, sable. Ce sont plusieurs espèces qui poussent sur le sable, d'où le nom vernaculaire « Sabline ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plants of the World online (POWO)                (16 juin 2021)[2] recense les 174 espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plants of the World online (POWO)                (16 juin 2021) recense les 174 espèces suivantes :
 Arenaria acaulis Montesinos &amp; Kool
 Arenaria achalensis Griseb.
 Arenaria aggregata (L.) Loisel.
@@ -748,9 +764,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres suivants sont synonymes de Arenaria selon Plants of the World online (POWO)                (16 juin 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres suivants sont synonymes de Arenaria selon Plants of the World online (POWO)                (16 juin 2021) :
 Alsinanthe (Fenzl) Rchb.
 Alsinanthus Desv.
 Alsinella Sw.
